--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H2">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>1303.963993145062</v>
+        <v>129.908624029861</v>
       </c>
       <c r="R2">
-        <v>11735.67593830556</v>
+        <v>1169.177616268749</v>
       </c>
       <c r="S2">
-        <v>0.01314419673063983</v>
+        <v>0.001790627052501744</v>
       </c>
       <c r="T2">
-        <v>0.01314419673063983</v>
+        <v>0.001790627052501744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H3">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>1.408402554384</v>
+        <v>0.191235942792</v>
       </c>
       <c r="R3">
-        <v>12.675622989456</v>
+        <v>1.721123485128</v>
       </c>
       <c r="S3">
-        <v>1.419695662462936E-05</v>
+        <v>2.635947036859686E-06</v>
       </c>
       <c r="T3">
-        <v>1.419695662462936E-05</v>
+        <v>2.635947036859687E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H4">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>29.65618631136778</v>
+        <v>4.026781072794999</v>
       </c>
       <c r="R4">
-        <v>266.90567680231</v>
+        <v>36.241029655155</v>
       </c>
       <c r="S4">
-        <v>0.0002989398090793454</v>
+        <v>5.550411435187947E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002989398090793455</v>
+        <v>5.550411435187947E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>91733.36985255023</v>
+        <v>67306.50104184783</v>
       </c>
       <c r="R5">
-        <v>825600.328672952</v>
+        <v>605758.5093766305</v>
       </c>
       <c r="S5">
-        <v>0.9246892294918811</v>
+        <v>0.9277354946586647</v>
       </c>
       <c r="T5">
-        <v>0.9246892294918811</v>
+        <v>0.9277354946586647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
         <v>99.08058282420001</v>
@@ -818,10 +818,10 @@
         <v>891.7252454178</v>
       </c>
       <c r="S6">
-        <v>0.000998750486726712</v>
+        <v>0.001365701263542527</v>
       </c>
       <c r="T6">
-        <v>0.000998750486726712</v>
+        <v>0.001365701263542527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
-        <v>2086.301402199987</v>
+        <v>2086.301402199986</v>
       </c>
       <c r="R7">
-        <v>18776.71261979988</v>
+        <v>18776.71261979987</v>
       </c>
       <c r="S7">
-        <v>0.02103030161422228</v>
+        <v>0.02875704179264422</v>
       </c>
       <c r="T7">
-        <v>0.02103030161422229</v>
+        <v>0.02875704179264422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N8">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q8">
-        <v>3858.830130573446</v>
+        <v>2831.296338739431</v>
       </c>
       <c r="R8">
-        <v>34729.47117516102</v>
+        <v>25481.66704865488</v>
       </c>
       <c r="S8">
-        <v>0.03889771700217134</v>
+        <v>0.0390258603357281</v>
       </c>
       <c r="T8">
-        <v>0.03889771700217134</v>
+        <v>0.03902586033572811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.404136</v>
       </c>
       <c r="O9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q9">
         <v>4.167895924584</v>
@@ -1004,10 +1004,10 @@
         <v>37.511063321256</v>
       </c>
       <c r="S9">
-        <v>4.201315701473478E-05</v>
+        <v>5.744920516482717E-05</v>
       </c>
       <c r="T9">
-        <v>4.201315701473478E-05</v>
+        <v>5.744920516482718E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N10">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q10">
-        <v>87.76176788454835</v>
+        <v>87.76176788454833</v>
       </c>
       <c r="R10">
         <v>789.855910960935</v>
       </c>
       <c r="S10">
-        <v>0.0008846547516400026</v>
+        <v>0.001209685630365299</v>
       </c>
       <c r="T10">
-        <v>0.0008846547516400028</v>
+        <v>0.001209685630365299</v>
       </c>
     </row>
   </sheetData>
